--- a/data/trans_bre/P22_R3-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P22_R3-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.9026755777092</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6008702572025695</v>
+        <v>0.6008702572025709</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002972082433406621</v>
@@ -649,7 +649,7 @@
         <v>-0.1914186107184559</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.06948261692974012</v>
+        <v>0.06948261692974028</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.350092509907485</v>
+        <v>-4.123189195627528</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.705514930810997</v>
+        <v>-7.714281558523162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.142422892568094</v>
+        <v>-8.240112769779119</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.431595981370283</v>
+        <v>-2.590435190120811</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.359467780080771</v>
+        <v>-0.3401698841673446</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5142498699392466</v>
+        <v>-0.5102648698921838</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4458285578859837</v>
+        <v>-0.4552901070613499</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2379123602844435</v>
+        <v>-0.2504982146418786</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.947242193975113</v>
+        <v>4.636932006029529</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.133003152369682</v>
+        <v>2.139847520215464</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.622287642963951</v>
+        <v>2.10581424482526</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.617759631228292</v>
+        <v>3.668468248773361</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6010604658295732</v>
+        <v>0.5633535433961768</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2013776506804319</v>
+        <v>0.2493032855805653</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1393540017325625</v>
+        <v>0.1729684890262086</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5304152560545006</v>
+        <v>0.5289455777112653</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-7.860114229493466</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-5.897812388579304</v>
+        <v>-5.897812388579305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5510295650364683</v>
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.85779949639507</v>
+        <v>-10.92839661263397</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-15.52766205116302</v>
+        <v>-15.05865405378148</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.72726182013445</v>
+        <v>-12.4592664805675</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-9.531149222757094</v>
+        <v>-9.724954381218986</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7415560769449923</v>
+        <v>-0.7472992099276251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.759377156872314</v>
+        <v>-0.7492887130354647</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7152616125342901</v>
+        <v>-0.6947904729812953</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7057893913171615</v>
+        <v>-0.7073496723883256</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.644275927137271</v>
+        <v>-2.802308797114654</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-4.559566390050853</v>
+        <v>-4.147132767340086</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-2.973571091407551</v>
+        <v>-3.374732123375197</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.586448443288932</v>
+        <v>-2.691053244511392</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.261451072145696</v>
+        <v>-0.255989410284961</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2856792059872216</v>
+        <v>-0.2484301251407141</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2344077580969413</v>
+        <v>-0.236099622564086</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2701593289488181</v>
+        <v>-0.2863767827472478</v>
       </c>
     </row>
     <row r="10">
@@ -860,24 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8773377480176043</v>
+        <v>1.133747002864283</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.194348012002023</v>
+        <v>0.2409738576794984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1902712773979672</v>
+        <v>-0.139663413955186</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.718788864074687</v>
+        <v>-0.7215165881764036</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3423490610930341</v>
+        <v>0.6449631717107153</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1755029092941688</v>
-      </c>
-      <c r="I11" s="6" t="inlineStr"/>
+        <v>-0.237438908592214</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6838277916025089</v>
+      </c>
       <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
@@ -888,22 +890,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.855446380815417</v>
+        <v>7.879183770937362</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.107548939480233</v>
+        <v>5.425366355151664</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.523806301465881</v>
+        <v>5.436825353958757</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.539102535109712</v>
+        <v>2.442902320779482</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>24.66151043904426</v>
+        <v>28.03313801606166</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>13.65233563737452</v>
+        <v>13.5725939400631</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="inlineStr"/>
@@ -929,7 +931,7 @@
         <v>0.314192137640696</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.2452041357473527</v>
+        <v>-0.2452041357473528</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.336302583070587</v>
@@ -941,7 +943,7 @@
         <v>0.1936477808742853</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2205722930566688</v>
+        <v>-0.2205722930566689</v>
       </c>
     </row>
     <row r="14">
@@ -952,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8193892545639252</v>
+        <v>0.765347810136849</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4451700668232382</v>
+        <v>0.4460599439168443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7809303909441051</v>
+        <v>-1.016131306498073</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.367519487771971</v>
+        <v>-1.436889115616246</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6072527039080884</v>
+        <v>0.4627486518651591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3837878865761898</v>
+        <v>0.3990293514484988</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4146367923312709</v>
+        <v>-0.4858646495116145</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7198830835698401</v>
+        <v>-0.7376933058304586</v>
       </c>
     </row>
     <row r="15">
@@ -984,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.530167090598324</v>
+        <v>3.40253473357756</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.913671217444755</v>
+        <v>2.867421936962072</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.60872867238826</v>
+        <v>1.633621898850693</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5637716715554968</v>
+        <v>0.627386313325396</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7.331366295860906</v>
+        <v>5.864888997937835</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11.83081141155369</v>
+        <v>12.40542567807021</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.378249570377726</v>
+        <v>1.37809461748337</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.230991602507743</v>
+        <v>1.256852758830799</v>
       </c>
     </row>
     <row r="16">
@@ -1029,7 +1031,7 @@
         <v>0.07896662534979974</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.04314060429094846</v>
+        <v>-0.04314060429094838</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2525068744567865</v>
@@ -1041,7 +1043,7 @@
         <v>0.1544576064904244</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.09684755601788855</v>
+        <v>-0.09684755601788837</v>
       </c>
     </row>
     <row r="17">
@@ -1052,26 +1054,24 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.656572440041768</v>
+        <v>-1.856770156838428</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4639925121363992</v>
+        <v>-0.5756174664673425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7758696204876542</v>
+        <v>-0.6691750887624484</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.214119099664583</v>
+        <v>-1.290601217686357</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4542149966163968</v>
+        <v>-0.478007231332654</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5269789638122202</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.6281357679854276</v>
+      </c>
+      <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
         <v>-1</v>
       </c>
@@ -1084,22 +1084,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.191532202023335</v>
+        <v>2.882696767467205</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.574922479823311</v>
+        <v>1.536711112803418</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8950323054491249</v>
+        <v>1.027289270913138</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4891852784824778</v>
+        <v>0.4782833693328047</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.032859812354969</v>
+        <v>1.860048201847156</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6.025226375728824</v>
+        <v>6.548353826238417</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         <v>-0.6603992167989983</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-2.153072738686817</v>
+        <v>-2.153072738686816</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.02130886730493546</v>
@@ -1137,7 +1137,7 @@
         <v>-0.2066681726729046</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.5006432865363156</v>
+        <v>-0.5006432865363155</v>
       </c>
     </row>
     <row r="20">
@@ -1148,28 +1148,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.028649206082111</v>
+        <v>-2.797477044399197</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.842939657636917</v>
+        <v>-6.253417946723556</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.397738909984797</v>
+        <v>-3.309478365774075</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-8.064682310267793</v>
+        <v>-9.061571917718609</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4747691093616861</v>
+        <v>-0.4558047951645948</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.721133421183729</v>
+        <v>-0.7184871347105599</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6313664548096246</v>
+        <v>-0.6292718692260163</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8256845476148879</v>
+        <v>-0.8278702339788959</v>
       </c>
     </row>
     <row r="21">
@@ -1180,28 +1180,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.108373019382972</v>
+        <v>2.120347967735334</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4392848062462235</v>
+        <v>0.4589560346458051</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.313737999950964</v>
+        <v>1.207892556391396</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9456548901825093</v>
+        <v>1.017925730388142</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9891992565262451</v>
+        <v>0.9492909981560527</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1643289601983682</v>
+        <v>0.1993555751960315</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9001818944146968</v>
+        <v>0.792087103927441</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7719197750377209</v>
+        <v>0.9335679865442609</v>
       </c>
     </row>
     <row r="22">
@@ -1225,7 +1225,7 @@
         <v>-1.184877449049663</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-1.02836247160845</v>
+        <v>-1.028362471608451</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1001215319179445</v>
@@ -1237,7 +1237,7 @@
         <v>-0.2563576507230926</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.276941207218692</v>
+        <v>-0.2769412072186923</v>
       </c>
     </row>
     <row r="23">
@@ -1248,28 +1248,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5799623421126018</v>
+        <v>-0.6053908772845227</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.208911280886913</v>
+        <v>-2.31323295576616</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.180731342029876</v>
+        <v>-2.196486141947156</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.952345377817383</v>
+        <v>-1.930384928073081</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1338427589947216</v>
+        <v>-0.1375035892390173</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4248970460092949</v>
+        <v>-0.4298018492708249</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4273100664622231</v>
+        <v>-0.4252934690524573</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4525647111434828</v>
+        <v>-0.4326751359687341</v>
       </c>
     </row>
     <row r="24">
@@ -1280,28 +1280,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.326877741783242</v>
+        <v>1.36757721344125</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.1827456760832367</v>
+        <v>-0.1327304150817498</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.2214863201397314</v>
+        <v>-0.2205753479555168</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.2352803682225867</v>
+        <v>-0.194178394626106</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3858193466980201</v>
+        <v>0.3922911691657536</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.04416106163562702</v>
+        <v>-0.02895758998055496</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.05171768558742282</v>
+        <v>-0.05401921139436355</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.07001111276313925</v>
+        <v>-0.05682367423455289</v>
       </c>
     </row>
     <row r="25">
